--- a/ev1_plantillastakeholders (1) (1).xlsx
+++ b/ev1_plantillastakeholders (1) (1).xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martha\Desktop\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B309F-9AF0-454F-8ED2-2239A3582D60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantillaStakeHolders" sheetId="2" r:id="rId1"/>
     <sheet name="ejemploListaRequerimientosStake" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amparo</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -462,9 +462,6 @@
     <t>encargado de verificar si el sistema sufre algun error, y si es asi repararlo.</t>
   </si>
   <si>
-    <t>inventado</t>
-  </si>
-  <si>
     <t>persona encargada de verificar los lineamientos para el orden de los productos.</t>
   </si>
   <si>
@@ -498,12 +495,15 @@
     <t>tener documentado todos los precios de los productos.
 Tener documentado las cuentas de la escuela.
 Llevar seguimientos de los procesos para los productos.</t>
+  </si>
+  <si>
+    <t>encargado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -998,42 +998,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,6 +1024,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,6 +1136,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1171,6 +1188,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1346,11 +1380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection sqref="A1:P8"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,40 +1513,40 @@
     <row r="6" spans="1:11" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
       <c r="F7" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1523,15 +1557,15 @@
     <row r="8" spans="1:11" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
       <c r="F8" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1701,7 +1735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1962,16 +1996,16 @@
       <c r="K9" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -1980,14 +2014,14 @@
       <c r="B12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -2012,14 +2046,14 @@
       <c r="B14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -2028,14 +2062,14 @@
       <c r="B15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
@@ -2044,14 +2078,14 @@
       <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
@@ -2072,14 +2106,14 @@
       <c r="B19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -2104,14 +2138,14 @@
       <c r="B21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
@@ -2120,14 +2154,14 @@
       <c r="B22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -2136,14 +2170,14 @@
       <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
@@ -2152,14 +2186,14 @@
       <c r="B24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -2168,14 +2202,14 @@
       <c r="B25" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
@@ -2199,14 +2233,14 @@
       <c r="B28" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
@@ -2231,14 +2265,14 @@
       <c r="B30" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -2247,14 +2281,14 @@
       <c r="B31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
@@ -2263,31 +2297,17 @@
       <c r="B32" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
@@ -2298,6 +2318,20 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="A11:H11"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
